--- a/Vorlagen/Vorlage_LandTirol_Rosmarie.xlsx
+++ b/Vorlagen/Vorlage_LandTirol_Rosmarie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosma\Documents\Rechnungen\Rechnungsprogramm_2.0\Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2BCE12-8D42-4ACA-BC15-FD3F0B35FD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6805593-871B-46BF-B052-C64CAB93EF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="600" windowWidth="13900" windowHeight="10200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rechnung Einrichtung" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>An das</t>
   </si>
@@ -60,15 +60,9 @@
     <t>Name der Therapeutin</t>
   </si>
   <si>
-    <t>Rosmarie Stark-Hechenberge</t>
-  </si>
-  <si>
     <t>Anschrift, Telefon, Fax, E-Mail</t>
   </si>
   <si>
-    <t>Praxis Mundwerk, Michael-Gaismair-Straße 11, 6020 Innsbruck</t>
-  </si>
-  <si>
     <t>IBAN</t>
   </si>
   <si>
@@ -136,6 +130,18 @@
   </si>
   <si>
     <t>Unterschrift der Therapeutin</t>
+  </si>
+  <si>
+    <t>Rosmarie Stark-Hechenberger</t>
+  </si>
+  <si>
+    <t>Praxis Mundwerk, Michael-Gaismair-Straße 11, 6020 Innsbruck, 0676/7415924</t>
+  </si>
+  <si>
+    <t>AT671100017900673900</t>
+  </si>
+  <si>
+    <t>BKAUATWW</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -459,12 +465,30 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -474,25 +498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -857,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -875,8 +880,8 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -885,11 +890,11 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -898,168 +903,172 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="B8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="2" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="38" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1146,7 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="21"/>
       <c r="H26" s="22">
@@ -1149,16 +1158,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="A27" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="24">
         <f>SUM(I22:I26)</f>
         <v>0</v>
@@ -1250,7 +1259,7 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -1263,16 +1272,16 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="A34" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="24">
         <f>SUM(I29:I33)</f>
         <v>0</v>
@@ -1360,7 +1369,7 @@
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -1373,43 +1382,43 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="A41" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="24">
         <f>SUM(I36:I40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
+      <c r="A43" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
       <c r="I43" s="29">
         <f>SUM(I27,I34,I41)</f>
         <v>0</v>
@@ -1417,7 +1426,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1462,27 +1471,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A42:H42"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="1.0208333333333299" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
